--- a/Excel2Json/Test/task.xlsx
+++ b/Excel2Json/Test/task.xlsx
@@ -204,10 +204,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -241,10 +237,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -360,9 +352,6 @@
     <t>2|island_B1</t>
   </si>
   <si>
-    <t>vector&lt;string&gt;</t>
-  </si>
-  <si>
     <r>
       <t>i</t>
     </r>
@@ -546,6 +535,74 @@
   </si>
   <si>
     <t>1|442|-229</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[100]</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector&lt;string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;10</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +809,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1065,7 +1125,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1075,145 +1135,147 @@
     <col min="3" max="3" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="14.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="13.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
-    <col min="10" max="11" width="17.5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="17.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="19" customWidth="1"/>
     <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="K1" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1221,32 +1283,32 @@
         <v>10001</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="4">
         <v>10002</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1254,32 +1316,32 @@
         <v>10002</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="4">
         <v>10003</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1287,32 +1349,32 @@
         <v>10003</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="4">
         <v>10004</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,19 +1382,19 @@
         <v>10004</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="13">
         <v>110</v>
@@ -1341,13 +1403,13 @@
         <v>10005</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1355,32 +1417,32 @@
         <v>10005</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="4">
         <v>10006</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1388,32 +1450,32 @@
         <v>10006</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="4">
         <v>10007</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1421,13 +1483,13 @@
         <v>10007</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -1435,10 +1497,10 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
